--- a/Rijaliana/datarijaliana.xlsx
+++ b/Rijaliana/datarijaliana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Rijaliana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDD75C-31AF-40A2-B918-B800D4B88822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A9A59-4C03-4EB2-81A0-5F9F3E10D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6934DABF-0B79-430E-8A98-721BF80AA228}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6934DABF-0B79-430E-8A98-721BF80AA228}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,80 +20,896 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>MUHAMMADUL ANAM</t>
-  </si>
-  <si>
-    <t>ABDUL AZIS</t>
-  </si>
-  <si>
-    <t>5203131609900003</t>
-  </si>
-  <si>
-    <t>H.SAUPIAN SAORI</t>
-  </si>
-  <si>
-    <t>5203133112720134</t>
-  </si>
-  <si>
-    <t>MUHAMMAD  ZARPI</t>
-  </si>
-  <si>
-    <t>5203131208870008</t>
-  </si>
-  <si>
-    <t>TARIQUZZIYAD</t>
-  </si>
-  <si>
-    <t>5203133012970006</t>
-  </si>
-  <si>
-    <t>IDHAM KHOLID</t>
-  </si>
-  <si>
-    <t>5203131507900004</t>
-  </si>
-  <si>
-    <t>H.HAMZAH</t>
-  </si>
-  <si>
-    <t>5203133112650192</t>
-  </si>
-  <si>
-    <t>NURUDDIN,S.P.d.I</t>
-  </si>
-  <si>
-    <t>5203133112750236</t>
-  </si>
-  <si>
-    <t>MUHAMMAD  FAESAL</t>
-  </si>
-  <si>
-    <t>5203131511960001</t>
-  </si>
-  <si>
-    <t>MUHAMMAD  RIZAL  EFENDI</t>
-  </si>
-  <si>
-    <t>HAERUMAN</t>
-  </si>
-  <si>
-    <t>5203130608930001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="295">
+  <si>
+    <t>MASTUR</t>
+  </si>
+  <si>
+    <t>5203133112750376</t>
+  </si>
+  <si>
+    <t>HAFIZIN</t>
+  </si>
+  <si>
+    <t>5203131206860009</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SADIKUL HADI</t>
+  </si>
+  <si>
+    <t>5203133112820084</t>
+  </si>
+  <si>
+    <t>HADI</t>
+  </si>
+  <si>
+    <t>5203133108840001</t>
+  </si>
+  <si>
+    <t>ZAHID ALAWI,S.PI</t>
+  </si>
+  <si>
+    <t>5203130510960004</t>
+  </si>
+  <si>
+    <t>SUTISNO EKAA PUTRA</t>
+  </si>
+  <si>
+    <t>5203131602830001</t>
+  </si>
+  <si>
+    <t>AQ.MILNAENI</t>
+  </si>
+  <si>
+    <t>5203133112600122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAQ BULLAH </t>
+  </si>
+  <si>
+    <t>5203133112650208</t>
+  </si>
+  <si>
+    <t>WATANUL ZUBAEDI</t>
+  </si>
+  <si>
+    <t>5203130711880003</t>
+  </si>
+  <si>
+    <t>MULIADI</t>
+  </si>
+  <si>
+    <t>5203131504000006</t>
+  </si>
+  <si>
+    <t>SAROJIN</t>
+  </si>
+  <si>
+    <t>5203133112710021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAQ MILIANA </t>
+  </si>
+  <si>
+    <t>5203133112510015</t>
+  </si>
+  <si>
+    <t>SUPRIADI</t>
+  </si>
+  <si>
+    <t>5203130710900001</t>
+  </si>
+  <si>
+    <t>SARJANA</t>
+  </si>
+  <si>
+    <t>5203134107550126</t>
+  </si>
+  <si>
+    <t>5203133112670202</t>
+  </si>
+  <si>
+    <t>H.NASRULLAH</t>
+  </si>
+  <si>
+    <t>5203133112500151</t>
+  </si>
+  <si>
+    <t>SUHERMAN</t>
+  </si>
+  <si>
+    <t>5203133112880167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMBALI </t>
+  </si>
+  <si>
+    <t>5203133112800338</t>
+  </si>
+  <si>
+    <t>MISNAL</t>
+  </si>
+  <si>
+    <t>5203130904880001</t>
+  </si>
+  <si>
+    <t>HENDRIAWAN</t>
+  </si>
+  <si>
+    <t>5203131606880003</t>
+  </si>
+  <si>
+    <t>SAEPUDIN AZHARI</t>
+  </si>
+  <si>
+    <t>5203130612990002</t>
+  </si>
+  <si>
+    <t>KHAERUL  HADI</t>
+  </si>
+  <si>
+    <t>5203133112770093</t>
+  </si>
+  <si>
+    <t>ISMI HARIANTO</t>
+  </si>
+  <si>
+    <t>5203130706820002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGAMINAH  </t>
+  </si>
+  <si>
+    <t>5203135706560001</t>
+  </si>
+  <si>
+    <t>SAMSUDIN</t>
+  </si>
+  <si>
+    <t>5203130107490124</t>
+  </si>
+  <si>
+    <t>AQ.MASTURI</t>
+  </si>
+  <si>
+    <t>5203130107680292</t>
+  </si>
+  <si>
+    <t>SUHARDI</t>
+  </si>
+  <si>
+    <t>5203133112750235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARIS </t>
+  </si>
+  <si>
+    <t>5203133112770255</t>
+  </si>
+  <si>
+    <t>HAERUDDIN</t>
+  </si>
+  <si>
+    <t>5203134107520150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAH </t>
+  </si>
+  <si>
+    <t>5203130312770001</t>
+  </si>
+  <si>
+    <t>MUHALLI</t>
+  </si>
+  <si>
+    <t>5203133112840191</t>
+  </si>
+  <si>
+    <t>JAMILUDDIN</t>
+  </si>
+  <si>
+    <t>5203130402550001</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HALILLUDDIN</t>
+  </si>
+  <si>
+    <t>5203130107830360</t>
+  </si>
+  <si>
+    <t>MUHAMMAD</t>
+  </si>
+  <si>
+    <t>5203130107610131</t>
+  </si>
+  <si>
+    <t>NIKMAL</t>
+  </si>
+  <si>
+    <t>5203132801850002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAM </t>
+  </si>
+  <si>
+    <t>5203137112750302</t>
+  </si>
+  <si>
+    <t>SUKAINI</t>
+  </si>
+  <si>
+    <t>5203131112800004</t>
+  </si>
+  <si>
+    <t>HENDRA AGUS ARIAWAN</t>
+  </si>
+  <si>
+    <t>5203130806880005</t>
+  </si>
+  <si>
+    <t>SAIPUL BAHRI</t>
+  </si>
+  <si>
+    <t>5203131010930003</t>
+  </si>
+  <si>
+    <t>ROHIDAH</t>
+  </si>
+  <si>
+    <t>5203134107690214</t>
+  </si>
+  <si>
+    <t>MUKSIN JAELANI</t>
+  </si>
+  <si>
+    <t>5203130302870005</t>
+  </si>
+  <si>
+    <t>HAERUL ANWAR</t>
+  </si>
+  <si>
+    <t>5203131512860004</t>
+  </si>
+  <si>
+    <t>JOHAENI</t>
+  </si>
+  <si>
+    <t>5203131404730002</t>
+  </si>
+  <si>
+    <t>MUHSAN</t>
+  </si>
+  <si>
+    <t>5203133012700023</t>
+  </si>
+  <si>
+    <t>RUSNI</t>
+  </si>
+  <si>
+    <t>5203134107670448</t>
+  </si>
+  <si>
+    <t>SUBANDI</t>
+  </si>
+  <si>
+    <t>5203133112790111</t>
+  </si>
+  <si>
+    <t>IQ SANUSI</t>
+  </si>
+  <si>
+    <t>5203137112650331</t>
+  </si>
+  <si>
+    <t>RAPIYAH</t>
+  </si>
+  <si>
+    <t>5203134107780277</t>
+  </si>
+  <si>
+    <t>AYU</t>
+  </si>
+  <si>
+    <t>5203130107470273</t>
+  </si>
+  <si>
+    <t>OMI JAYADI</t>
+  </si>
+  <si>
+    <t>6310083112880002</t>
+  </si>
+  <si>
+    <t>HILALUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112870258</t>
+  </si>
+  <si>
+    <t>MARMA</t>
+  </si>
+  <si>
+    <t>5203134107620327</t>
+  </si>
+  <si>
+    <t>ISMAIL</t>
+  </si>
+  <si>
+    <t>5203133112780288</t>
+  </si>
+  <si>
+    <t>NASRUDIN</t>
+  </si>
+  <si>
+    <t>5203133112790174</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RYADI MUKIANI</t>
+  </si>
+  <si>
+    <t>5203133112780177</t>
+  </si>
+  <si>
+    <t>ZAENUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112690079</t>
+  </si>
+  <si>
+    <t>SAPI'IN</t>
+  </si>
+  <si>
+    <t>5203133012740015</t>
+  </si>
+  <si>
+    <t>ENI MARIANI</t>
+  </si>
+  <si>
+    <t>5203134105760003</t>
+  </si>
+  <si>
+    <t>AMAQ  MAWAR</t>
+  </si>
+  <si>
+    <t>5203133112720202</t>
+  </si>
+  <si>
+    <t>ASMUNI</t>
+  </si>
+  <si>
+    <t>5203133112840119</t>
+  </si>
+  <si>
+    <t>MUHIBBIN</t>
+  </si>
+  <si>
+    <t>5203132504850001</t>
+  </si>
+  <si>
+    <t>ABDUL LATIF</t>
+  </si>
+  <si>
+    <t>5203130604880003</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>5203131704850001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMAD DANI </t>
+  </si>
+  <si>
+    <t>5203133112850314</t>
+  </si>
+  <si>
+    <t>SALIHIN</t>
+  </si>
+  <si>
+    <t>5203131510760005</t>
+  </si>
+  <si>
+    <t>ROHMI</t>
+  </si>
+  <si>
+    <t>5203137112590047</t>
+  </si>
+  <si>
+    <t>H.SAEFUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112600337</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>5203130107500171</t>
+  </si>
+  <si>
+    <t>5203131912840001</t>
+  </si>
+  <si>
+    <t>SIYAH</t>
+  </si>
+  <si>
+    <t>5203134107500188</t>
+  </si>
+  <si>
+    <t>MARNI</t>
+  </si>
+  <si>
+    <t>5203134107400101</t>
+  </si>
+  <si>
+    <t>H.MARHAMAH</t>
+  </si>
+  <si>
+    <t>5203133112690160</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ROSYIDI</t>
+  </si>
+  <si>
+    <t>5203130107880465</t>
+  </si>
+  <si>
+    <t>MU'MININ</t>
+  </si>
+  <si>
+    <t>5203133112900110</t>
+  </si>
+  <si>
+    <t>NURJANNAH</t>
+  </si>
+  <si>
+    <t>5203134804780002</t>
+  </si>
+  <si>
+    <t>ASMUI</t>
+  </si>
+  <si>
+    <t>5203133112810202</t>
+  </si>
+  <si>
+    <t>PAHUZULAZIM</t>
+  </si>
+  <si>
+    <t>5203130107840460</t>
+  </si>
+  <si>
+    <t>ZAKARIA</t>
+  </si>
+  <si>
+    <t>5203131007900008</t>
+  </si>
+  <si>
+    <t>INAQ PI'I</t>
+  </si>
+  <si>
+    <t>5203137112800248</t>
+  </si>
+  <si>
+    <t>AMAQ MUHDISIN</t>
+  </si>
+  <si>
+    <t>5203133112610153</t>
+  </si>
+  <si>
+    <t>BAHRI</t>
+  </si>
+  <si>
+    <t>5203130205610001</t>
+  </si>
+  <si>
+    <t>INAQ ZAMAN</t>
+  </si>
+  <si>
+    <t>5203137112700326</t>
+  </si>
+  <si>
+    <t>SUPRONI</t>
+  </si>
+  <si>
+    <t>5203133112840261</t>
+  </si>
+  <si>
+    <t>MUHAMMAD  RAMLI</t>
+  </si>
+  <si>
+    <t>5203133112880121</t>
+  </si>
+  <si>
+    <t>SULFADLI</t>
+  </si>
+  <si>
+    <t>5203133112750119</t>
+  </si>
+  <si>
+    <t>HAMDANI</t>
+  </si>
+  <si>
+    <t>5203133112750408</t>
+  </si>
+  <si>
+    <t>PASKUA ZOHDI MARANGGAWAN</t>
+  </si>
+  <si>
+    <t>5203130202930003</t>
+  </si>
+  <si>
+    <t>LINDA</t>
+  </si>
+  <si>
+    <t>5203137112860285</t>
+  </si>
+  <si>
+    <t>MAEMUNAH</t>
+  </si>
+  <si>
+    <t>5203136006760001</t>
+  </si>
+  <si>
+    <t>AMAQ ROHIDAH</t>
+  </si>
+  <si>
+    <t>5203133112670187</t>
+  </si>
+  <si>
+    <t>PAIZIN ROSIDI</t>
+  </si>
+  <si>
+    <t>5203133112990064</t>
+  </si>
+  <si>
+    <t>ABD.HADI</t>
+  </si>
+  <si>
+    <t>5203131103900006</t>
+  </si>
+  <si>
+    <t>ZAINUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112760250</t>
+  </si>
+  <si>
+    <t>LALU RAHMAN ALPARIZI</t>
+  </si>
+  <si>
+    <t>5203130502910003</t>
+  </si>
+  <si>
+    <t>SAMSUL HADI</t>
+  </si>
+  <si>
+    <t>5203130808760004</t>
+  </si>
+  <si>
+    <t>MA'AS</t>
+  </si>
+  <si>
+    <t>5203134107450117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMAD </t>
+  </si>
+  <si>
+    <t>5203130406830004</t>
+  </si>
+  <si>
+    <t>NASRIN</t>
+  </si>
+  <si>
+    <t>5203132209790001</t>
+  </si>
+  <si>
+    <t>5203133112800298</t>
+  </si>
+  <si>
+    <t>UMAR HADI</t>
+  </si>
+  <si>
+    <t>5203130107790449</t>
+  </si>
+  <si>
+    <t>SAED BAWAZIR</t>
+  </si>
+  <si>
+    <t>5203131105770004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISHAK </t>
+  </si>
+  <si>
+    <t>5203133112830254</t>
+  </si>
+  <si>
+    <t>ARIPIN</t>
+  </si>
+  <si>
+    <t>5203130107800817</t>
+  </si>
+  <si>
+    <t>LASTARI BT AMILUDDIN NURSIM</t>
+  </si>
+  <si>
+    <t>5203135604820007</t>
+  </si>
+  <si>
+    <t>HARTAWAN ACAM</t>
+  </si>
+  <si>
+    <t>5203133112710193</t>
+  </si>
+  <si>
+    <t>REDI SAPUTRA</t>
+  </si>
+  <si>
+    <t>5203131012030004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARDIMAN </t>
+  </si>
+  <si>
+    <t>5203133112830156</t>
+  </si>
+  <si>
+    <t>TANWIR</t>
+  </si>
+  <si>
+    <t>5203132103850001</t>
+  </si>
+  <si>
+    <t>H.SADARUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112650198</t>
+  </si>
+  <si>
+    <t>MUPLIHUN</t>
+  </si>
+  <si>
+    <t>5203131202920005</t>
+  </si>
+  <si>
+    <t>HAERANI</t>
+  </si>
+  <si>
+    <t>5203134911890001</t>
+  </si>
+  <si>
+    <t>PAHRUROZI,Spdi</t>
+  </si>
+  <si>
+    <t>5203130204790001</t>
+  </si>
+  <si>
+    <t>SAPARUDDIN</t>
+  </si>
+  <si>
+    <t>5203133112700500</t>
+  </si>
+  <si>
+    <t>MUKSIN</t>
+  </si>
+  <si>
+    <t>5203130107830414</t>
+  </si>
+  <si>
+    <t>AHMAD ABROR</t>
+  </si>
+  <si>
+    <t>5203131603910002</t>
+  </si>
+  <si>
+    <t>H.TURMUZI</t>
+  </si>
+  <si>
+    <t>5203131709550001</t>
+  </si>
+  <si>
+    <t>MUSTAFA TURMIZI</t>
+  </si>
+  <si>
+    <t>5203130307950001</t>
+  </si>
+  <si>
+    <t>H.IBRAHIM</t>
+  </si>
+  <si>
+    <t>5203133112660132</t>
+  </si>
+  <si>
+    <t>HAWASUL HAWASAM MA'WA</t>
+  </si>
+  <si>
+    <t>5203130502890003</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SUBLI</t>
+  </si>
+  <si>
+    <t>5203130101810007</t>
+  </si>
+  <si>
+    <t>M.NAZRI</t>
+  </si>
+  <si>
+    <t>5203131510990004</t>
+  </si>
+  <si>
+    <t>MUKMININ</t>
+  </si>
+  <si>
+    <t>5203133112750250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGAMAWAN </t>
+  </si>
+  <si>
+    <t>5203133112850184</t>
+  </si>
+  <si>
+    <t>H.AWALUDDIN,S.SY</t>
+  </si>
+  <si>
+    <t>5203133112620199</t>
+  </si>
+  <si>
+    <t>HUSNUL KHATIMAH</t>
+  </si>
+  <si>
+    <t>5203137112890092</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZUBER</t>
+  </si>
+  <si>
+    <t>5203131807900005</t>
+  </si>
+  <si>
+    <t>H.MUKSIN</t>
+  </si>
+  <si>
+    <t>5203130112570002</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAIHABISSSAIRI</t>
+  </si>
+  <si>
+    <t>5203131802840003</t>
+  </si>
+  <si>
+    <t>ARIF MIN HAEZAH</t>
+  </si>
+  <si>
+    <t>5203130503860005</t>
+  </si>
+  <si>
+    <t>MUNAWAR HADI,SS</t>
+  </si>
+  <si>
+    <t>5203133112730211</t>
+  </si>
+  <si>
+    <t>HURRONI</t>
+  </si>
+  <si>
+    <t>5203131802830001</t>
+  </si>
+  <si>
+    <t>H.MUH.RIPA'I</t>
+  </si>
+  <si>
+    <t>5203133112570149</t>
+  </si>
+  <si>
+    <t>H.AHAMAD NAWAWI</t>
+  </si>
+  <si>
+    <t>5203133112620098</t>
+  </si>
+  <si>
+    <t>H.ASSYAOKANI</t>
+  </si>
+  <si>
+    <t>5203133112690150</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAEROZI</t>
+  </si>
+  <si>
+    <t>5203132608950004</t>
+  </si>
+  <si>
+    <t>HASAN BASRI</t>
+  </si>
+  <si>
+    <t>5203131608900007</t>
+  </si>
+  <si>
+    <t>MUANAN HADI</t>
+  </si>
+  <si>
+    <t>5203130201800007</t>
+  </si>
+  <si>
+    <t>MUHAIYAH</t>
+  </si>
+  <si>
+    <t>5203134907810003</t>
+  </si>
+  <si>
+    <t>EDI MUJTAHIDUL ISLAMI</t>
+  </si>
+  <si>
+    <t>5203132607930002</t>
+  </si>
+  <si>
+    <t>AMRILLAH</t>
+  </si>
+  <si>
+    <t>5203132804830001</t>
+  </si>
+  <si>
+    <t>HABIBI</t>
+  </si>
+  <si>
+    <t>5203130107860375</t>
+  </si>
+  <si>
+    <t>MUHAMMAD KUSAIRI</t>
+  </si>
+  <si>
+    <t>5203133112870240</t>
+  </si>
+  <si>
+    <t>H.SIBAWAIH</t>
+  </si>
+  <si>
+    <t>5203133112550277</t>
+  </si>
+  <si>
+    <t>H.MUH RAMLI</t>
+  </si>
+  <si>
+    <t>5203130101710009</t>
+  </si>
+  <si>
+    <t>TARMIZI</t>
+  </si>
+  <si>
+    <t>5203133112690154</t>
+  </si>
+  <si>
+    <t>ALI IBRAHIM</t>
+  </si>
+  <si>
+    <t>5203131202780001</t>
+  </si>
+  <si>
+    <t>NURUL WATON</t>
+  </si>
+  <si>
+    <t>5203137112800256</t>
+  </si>
+  <si>
+    <t>H.ABDUL  SYAKUR</t>
+  </si>
+  <si>
+    <t>5203130303770003</t>
+  </si>
+  <si>
+    <t>H.MUHARRIL PATONI</t>
+  </si>
+  <si>
+    <t>5203133112770166</t>
   </si>
 </sst>
 </file>
@@ -135,10 +951,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,137 +1270,1655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E586C5-C8FA-48F7-B33C-A53884611700}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>116</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C137" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C138" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C139" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C140" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
+      <c r="C142" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
